--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevo Pro" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="95">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>self.fgs.Add(btn_aceptar, pos=(6,1),span=(1,3), flag= wx.ALL | wx.ALIGN_CENTER, border=0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DEBE ENVIAR UN CORREO AL ENCARGADO DEL PROCESO, </t>
+  </si>
+  <si>
+    <t>DONDE ESTA ESTO?</t>
   </si>
 </sst>
 </file>
@@ -648,11 +654,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,16 +683,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,7 +692,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,35 +976,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Pantalla Principal"/>
-      <sheetName val="Ventana Crear Proceso"/>
-      <sheetName val="Ventana Usuarios"/>
-      <sheetName val="Notificación"/>
-      <sheetName val="Campos"/>
-      <sheetName val="Tipos de Procesos"/>
-      <sheetName val="BD Procesos"/>
-      <sheetName val="BD del Proceso (Actuaciones)"/>
-      <sheetName val="Funcionalidades"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Interfaz"/>
       <sheetName val="Campos"/>
       <sheetName val="Tipos de Procesos"/>
@@ -1011,6 +988,35 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Pantalla Principal"/>
+      <sheetName val="Ventana Crear Proceso"/>
+      <sheetName val="Ventana Usuarios"/>
+      <sheetName val="Notificación"/>
+      <sheetName val="Campos"/>
+      <sheetName val="Tipos de Procesos"/>
+      <sheetName val="BD Procesos"/>
+      <sheetName val="BD del Proceso (Actuaciones)"/>
+      <sheetName val="Funcionalidades"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1354,11 +1360,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1374,22 +1380,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1403,23 +1409,23 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,23 +1439,23 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,7 +1480,7 @@
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="7"/>
@@ -1490,21 +1496,21 @@
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="33" t="str">
+      <c r="H12" s="42" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,14 +1520,14 @@
       <c r="B13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="30" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="7"/>
@@ -1529,7 +1535,7 @@
         <f>+IF(H12="","","Tipo de persona")</f>
         <v>Tipo de persona</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1540,42 +1546,42 @@
         <f>+IF(C13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="7"/>
       <c r="E14" s="16" t="str">
         <f>+IF(F13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="7"/>
       <c r="H14" s="16" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Nombre","Razón Social")))</f>
         <v>Razón Social</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="36" t="str">
+      <c r="B15" s="31" t="str">
         <f>+IF(C13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="36" t="str">
+      <c r="E15" s="31" t="str">
         <f>+IF(F13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="36" t="str">
+      <c r="H15" s="31" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Cédula","NIT")))</f>
         <v>NIT</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="34"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -1826,7 +1832,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1843,7 +1849,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1997,12 +2003,12 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="19" t="s">
         <v>26</v>
       </c>
@@ -2032,7 +2038,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2051,7 +2057,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
@@ -2088,17 +2094,23 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
+      <c r="L19" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="I20" s="8"/>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2226,7 +2238,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Gv Carolina-2.xlsx]Campos'!#REF!</xm:f>
+            <xm:f>'C:\Users\Cesar\Proyectos\WebScraping-Cinco\[Gv Carolina-2.xlsx]Campos'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D27 C30 F25:F27</xm:sqref>
         </x14:dataValidation>
@@ -2240,538 +2252,538 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="46"/>
-    <col min="3" max="3" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="46"/>
+    <col min="1" max="2" width="11.42578125" style="38"/>
+    <col min="3" max="3" width="19" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="46" t="str">
+      <c r="F1" s="38" t="str">
         <f>+CONCATENATE(A1,B1,C1,D1,E1)</f>
         <v>self.lblactualizar_procesos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="46" t="str">
+      <c r="F2" s="38" t="str">
         <f t="shared" ref="F2:F25" si="0">+CONCATENATE(A2,B2,C2,D2,E2)</f>
         <v>self.lblclientes_abiertos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblprocesos_abiertos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="46" t="str">
+      <c r="F4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuaciones_pend=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="46" t="str">
+      <c r="F5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="46" t="str">
+      <c r="F6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lbldescripcion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="46" t="str">
+      <c r="F7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_actuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="46" t="str">
+      <c r="F8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_fin_termino=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="46" t="str">
+      <c r="F9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion_relacionada=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="46" t="str">
+      <c r="F10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion_propia=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="46" t="str">
+      <c r="F11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblinfo_adicional=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="46" t="str">
+      <c r="F12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblestrategia=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="46" t="str">
+      <c r="F13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_limite=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="46" t="str">
+      <c r="F14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lblestado=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptaactuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="46" t="str">
+      <c r="F16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptadescripcion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="46" t="str">
+      <c r="F17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptafecha_actuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="46" t="str">
+      <c r="F18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptafecha_fin_termino=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="46" t="str">
+      <c r="F19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.comboclientes_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="46" t="str">
+      <c r="F20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.comboprocesos_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="46" t="str">
+      <c r="F21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.comboactuaciones_pend=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="46" t="str">
+      <c r="F22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.comboactuacion_relacionada=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="46" t="str">
+      <c r="F23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.txtinfo_adicional=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="46" t="str">
+      <c r="F24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.checkactuacion_propia_si=wx.CheckBox(self.panel, label= "Si")</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="46" t="str">
+      <c r="F25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.checkactuacion_propia_no=wx.CheckBox(self.panel, label= "No")</v>
       </c>
@@ -2791,846 +2803,846 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="46" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="46"/>
+    <col min="1" max="1" width="4.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="38" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="6.28515625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="38">
         <v>1</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="46">
+      <c r="H1" s="38">
         <v>4</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="46" t="str">
+      <c r="J1" s="38" t="str">
         <f>+CONCATENATE(D1,A1,B1,C1,E1,F1,G1,H1,I1)</f>
         <v>self.fgs.Add(self.lblactualizar_procesos, pos=(1,4),span=(1,2), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="38">
         <v>3</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="38">
         <v>1</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="46" t="str">
+      <c r="J2" s="38" t="str">
         <f t="shared" ref="J2:J25" si="0">+CONCATENATE(D2,A2,B2,C2,E2,F2,G2,H2,I2)</f>
         <v>self.fgs.Add(self.lblclientes_abiertos, pos=(3,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="38">
         <v>5</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="38">
         <v>1</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="46" t="str">
+      <c r="J3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblprocesos_abiertos, pos=(5,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="38">
         <v>7</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="38">
         <v>1</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="46" t="str">
+      <c r="J4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuaciones_pend, pos=(7,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="38">
         <v>10</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="38">
         <v>1</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="46" t="str">
+      <c r="J5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion, pos=(10,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="38">
         <v>10</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="38">
         <v>2</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="46" t="str">
+      <c r="J6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldescripcion, pos=(10,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="38">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="38">
         <v>3</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="46" t="str">
+      <c r="J7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_actuacion, pos=(10,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="38">
         <v>10</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="38">
         <v>4</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="46" t="str">
+      <c r="J8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_fin_termino, pos=(10,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="38">
         <v>13</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="38">
         <v>1</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="46" t="str">
+      <c r="J9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion_relacionada, pos=(13,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="38">
         <v>16</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="38">
         <v>1</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="46" t="str">
+      <c r="J10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion_propia, pos=(16,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="38">
         <v>19</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="38">
         <v>1</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="46" t="str">
+      <c r="J11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblinfo_adicional, pos=(19,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="38">
         <v>19</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="38">
         <v>3</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="46" t="str">
+      <c r="J12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblestrategia, pos=(19,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="38">
         <v>19</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="38">
         <v>4</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="46" t="str">
+      <c r="J13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_limite, pos=(19,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="38">
         <v>19</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="38">
         <v>5</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="46" t="str">
+      <c r="J14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblestado, pos=(19,5),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="38">
         <v>11</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="38">
         <v>1</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="46" t="str">
+      <c r="J15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptaactuacion, pos=(11,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="38">
         <v>11</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="38">
         <v>2</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="46" t="str">
+      <c r="J16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptadescripcion, pos=(11,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="38">
         <v>11</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="38">
         <v>3</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="46" t="str">
+      <c r="J17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptafecha_actuacion, pos=(11,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="38">
         <v>11</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="38">
         <v>4</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="46" t="str">
+      <c r="J18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptafecha_fin_termino, pos=(11,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="38">
         <v>3</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="38">
         <v>2</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="46" t="str">
+      <c r="J19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboclientes_abiertos, pos=(3,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="38">
         <v>5</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="38">
         <v>2</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="46" t="str">
+      <c r="J20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboprocesos_abiertos, pos=(5,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="38">
         <v>7</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="38">
         <v>2</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="46" t="str">
+      <c r="J21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboactuaciones_pend, pos=(7,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="38">
         <v>14</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="38">
         <v>1</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="46" t="str">
+      <c r="J22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboactuacion_relacionada, pos=(14,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="38">
         <v>20</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="38">
         <v>1</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="I23" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="46" t="str">
+      <c r="J23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.txtinfo_adicional, pos=(20,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="38">
         <v>17</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="38">
         <v>1</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="46" t="str">
+      <c r="J24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.checkactuacion_propia_si, pos=(17,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="38">
         <v>17</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="38">
         <v>2</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="46" t="str">
+      <c r="J25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.checkactuacion_propia_no, pos=(17,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="38" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevo Pro" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>DONDE ESTA ESTO?</t>
+  </si>
+  <si>
+    <t>¿Qué debe contener la lista desplegable?</t>
   </si>
 </sst>
 </file>
@@ -983,11 +986,11 @@
       <sheetName val="Funcionalidades"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1008,15 +1011,15 @@
       <sheetName val="Funcionalidades"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1287,9 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1750,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2013,9 @@
       <c r="F14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="L14" s="15" t="s">
@@ -2253,10 +2256,10 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="38"/>
     <col min="3" max="3" width="19" style="38" bestFit="1" customWidth="1"/>
@@ -2798,7 +2801,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevo Pro" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="96">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -57,12 +57,6 @@
     <t>que se debe mostrar en esta lista, el numero del grupo? O que campo</t>
   </si>
   <si>
-    <t>Procesos abiertos</t>
-  </si>
-  <si>
-    <t>Lista desplegable de Radicado cortos de ese cliente</t>
-  </si>
-  <si>
     <t>la actuacion es propia ? , solo debe salir sidependiendo de si es memorial o no</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>MEMORIALES A DESPACHO</t>
   </si>
   <si>
-    <t>Se muestra la información que sale de la página de la Rama</t>
-  </si>
-  <si>
     <t>RECEPCIÓN MEMORIAL</t>
   </si>
   <si>
@@ -319,6 +310,15 @@
   </si>
   <si>
     <t>¿Qué debe contener la lista desplegable?</t>
+  </si>
+  <si>
+    <t>cffdfl</t>
+  </si>
+  <si>
+    <t>p1dflk</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,9 +625,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,6 +691,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,13 +853,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -913,13 +916,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1290,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1342,8 +1345,8 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>37</v>
+      <c r="B2" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1361,11 +1364,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="G3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1373,30 +1376,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>41</v>
+      <c r="B5" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1404,29 +1407,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="29" t="s">
-        <v>41</v>
+      <c r="B7" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,29 +1437,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="29" t="s">
-        <v>44</v>
+      <c r="B9" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1464,10 +1467,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1481,8 +1484,8 @@
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>41</v>
+      <c r="B11" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1497,92 +1500,92 @@
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="41"/>
+      <c r="B12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="40"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="43"/>
+      <c r="E12" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="42"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="42" t="str">
+      <c r="H12" s="41" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="43"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>50</v>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>50</v>
+      <c r="E13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="15" t="str">
         <f>+IF(H12="","","Tipo de persona")</f>
         <v>Tipo de persona</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="16" t="str">
+      <c r="B14" s="15" t="str">
         <f>+IF(C13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="15" t="str">
         <f>+IF(F13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="15" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Nombre","Razón Social")))</f>
         <v>Razón Social</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="str">
+      <c r="B15" s="30" t="str">
         <f>+IF(C13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="31" t="str">
+      <c r="E15" s="30" t="str">
         <f>+IF(F13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="F15" s="32"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="31" t="str">
+      <c r="H15" s="30" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Cédula","NIT")))</f>
         <v>NIT</v>
       </c>
-      <c r="I15" s="32"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,14 +1607,14 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1634,14 +1637,14 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1664,14 +1667,14 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1689,15 +1692,15 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1749,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="33"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -1833,7 +1836,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1850,7 +1853,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1867,10 +1870,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1898,10 +1901,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1923,7 +1926,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="L9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1939,93 +1942,91 @@
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="L10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="L11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
-      <c r="L13" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="B14" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="L14" s="15" t="s">
-        <v>21</v>
+      <c r="L14" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2033,205 +2034,240 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="L15" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
-      <c r="L16" s="15" t="s">
-        <v>23</v>
+      <c r="L16" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
-      <c r="L17" s="15" t="s">
-        <v>25</v>
+      <c r="L17" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="B18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
+      <c r="L18" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
-      <c r="L19" s="1" t="s">
-        <v>93</v>
+      <c r="L19" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="8"/>
-      <c r="L20" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="8"/>
+      <c r="L21" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="I22" s="8"/>
+      <c r="L22" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>35</v>
+      <c r="B28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="7"/>
-      <c r="E30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="7"/>
       <c r="I30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="21" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="E32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="24" t="s">
         <v>33</v>
-      </c>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="25" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2243,7 +2279,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Cesar\Proyectos\WebScraping-Cinco\[Gv Carolina-2.xlsx]Campos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D27 C30 F25:F27</xm:sqref>
+          <xm:sqref>D29 C32 F27:F29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2261,532 +2297,532 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="38"/>
-    <col min="3" max="3" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="38"/>
+    <col min="1" max="2" width="11.42578125" style="37"/>
+    <col min="3" max="3" width="19" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="38" t="str">
+      <c r="F1" s="37" t="str">
         <f>+CONCATENATE(A1,B1,C1,D1,E1)</f>
         <v>self.lblactualizar_procesos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="38" t="str">
+      <c r="F2" s="37" t="str">
         <f t="shared" ref="F2:F25" si="0">+CONCATENATE(A2,B2,C2,D2,E2)</f>
         <v>self.lblclientes_abiertos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="F3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblprocesos_abiertos=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblactuaciones_pend=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblactuacion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lbldescripcion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblfecha_actuacion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblfecha_fin_termino=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblactuacion_relacionada=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblactuacion_propia=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblinfo_adicional=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblestrategia=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblfecha_limite=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lblestado=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lbrptaactuacion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lbrptadescripcion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lbrptafecha_actuacion=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.lbrptafecha_fin_termino=wx.StaticText(self.panel, label='')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.comboclientes_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="D20" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.comboprocesos_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblprocesos_abiertos=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuaciones_pend=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="E21" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.comboactuaciones_pend=wx.ComboBox(self.panel,value='', choices=[])</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="E22" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.comboactuacion_relacionada=wx.ComboBox(self.panel,value='', choices=[])</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbldescripcion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="E23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.txtinfo_adicional=wx.TextCtrl(self.panel)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_actuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="E24" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.checkactuacion_propia_si=wx.CheckBox(self.panel, label= "Si")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_fin_termino=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion_relacionada=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion_propia=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblinfo_adicional=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblestrategia=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_limite=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblestado=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptaactuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptadescripcion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptafecha_actuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptafecha_fin_termino=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboclientes_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboprocesos_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboactuaciones_pend=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboactuacion_relacionada=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.txtinfo_adicional=wx.TextCtrl(self.panel)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.checkactuacion_propia_si=wx.CheckBox(self.panel, label= "Si")</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="38" t="str">
+      <c r="F25" s="37" t="str">
         <f t="shared" si="0"/>
         <v>self.checkactuacion_propia_no=wx.CheckBox(self.panel, label= "No")</v>
       </c>
@@ -2806,847 +2842,847 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="38" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="38"/>
+    <col min="1" max="1" width="4.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="37" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="6.28515625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="37">
+        <v>1</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="37">
+        <v>4</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="38">
-        <v>1</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="38">
-        <v>4</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="38" t="str">
+      <c r="J1" s="37" t="str">
         <f>+CONCATENATE(D1,A1,B1,C1,E1,F1,G1,H1,I1)</f>
         <v>self.fgs.Add(self.lblactualizar_procesos, pos=(1,4),span=(1,2), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="A2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="37">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="37">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="38">
-        <v>3</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="38">
-        <v>1</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="38" t="str">
+      <c r="J2" s="37" t="str">
         <f t="shared" ref="J2:J25" si="0">+CONCATENATE(D2,A2,B2,C2,E2,F2,G2,H2,I2)</f>
         <v>self.fgs.Add(self.lblclientes_abiertos, pos=(3,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="37">
+        <v>5</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="37">
+        <v>1</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblprocesos_abiertos, pos=(5,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="37">
+        <v>7</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="37">
+        <v>1</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblactuaciones_pend, pos=(7,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="37">
+        <v>10</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="37">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblactuacion, pos=(10,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="D6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="37">
+        <v>10</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="37">
+        <v>2</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="38">
+      <c r="J6" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lbldescripcion, pos=(10,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="37">
+        <v>10</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="37">
+        <v>3</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblfecha_actuacion, pos=(10,3),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="37">
+        <v>10</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="37">
+        <v>4</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblfecha_fin_termino, pos=(10,4),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="37">
+        <v>13</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblactuacion_relacionada, pos=(13,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="37">
+        <v>16</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="37">
+        <v>1</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblactuacion_propia, pos=(16,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="37">
+        <v>19</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblinfo_adicional, pos=(19,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="37">
+        <v>19</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="37">
+        <v>3</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblestrategia, pos=(19,3),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="37">
+        <v>19</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="37">
+        <v>4</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblfecha_limite, pos=(19,4),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="37">
+        <v>19</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="37">
         <v>5</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="I14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lblestado, pos=(19,5),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="37">
+        <v>11</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lbrptaactuacion, pos=(11,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="37">
+        <v>11</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="37">
+        <v>2</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lbrptadescripcion, pos=(11,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="37">
+        <v>11</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="37">
+        <v>3</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lbrptafecha_actuacion, pos=(11,3),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="37">
+        <v>11</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="37">
+        <v>4</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.lbrptafecha_fin_termino, pos=(11,4),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="37">
+        <v>3</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="37">
+        <v>2</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.comboclientes_abiertos, pos=(3,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="37">
+        <v>5</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="37">
+        <v>2</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.comboprocesos_abiertos, pos=(5,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="37">
+        <v>7</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="37">
+        <v>2</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.comboactuaciones_pend, pos=(7,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="37">
+        <v>14</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.comboactuacion_relacionada, pos=(14,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="37">
+        <v>20</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="37">
+        <v>1</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.txtinfo_adicional, pos=(20,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="37">
+        <v>17</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.checkactuacion_propia_si, pos=(17,1),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="37">
+        <v>17</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="37">
+        <v>2</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>self.fgs.Add(self.checkactuacion_propia_no, pos=(17,2),span=(1,1), flag= wx.ALL, border=0)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
         <v>89</v>
-      </c>
-      <c r="H3" s="38">
-        <v>1</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblprocesos_abiertos, pos=(5,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="38">
-        <v>7</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="38">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuaciones_pend, pos=(7,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="38">
-        <v>10</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion, pos=(10,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="38">
-        <v>10</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="38">
-        <v>2</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbldescripcion, pos=(10,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="38">
-        <v>10</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="38">
-        <v>3</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_actuacion, pos=(10,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="38">
-        <v>10</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="38">
-        <v>4</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_fin_termino, pos=(10,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="38">
-        <v>13</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion_relacionada, pos=(13,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="38">
-        <v>16</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="38">
-        <v>1</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion_propia, pos=(16,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="38">
-        <v>19</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblinfo_adicional, pos=(19,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="38">
-        <v>19</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="38">
-        <v>3</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblestrategia, pos=(19,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="38">
-        <v>19</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="38">
-        <v>4</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_limite, pos=(19,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="38">
-        <v>19</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="38">
-        <v>5</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblestado, pos=(19,5),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="38">
-        <v>11</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptaactuacion, pos=(11,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="38">
-        <v>11</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="38">
-        <v>2</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptadescripcion, pos=(11,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="38">
-        <v>11</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="38">
-        <v>3</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptafecha_actuacion, pos=(11,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="38">
-        <v>11</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="38">
-        <v>4</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptafecha_fin_termino, pos=(11,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="38">
-        <v>3</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="38">
-        <v>2</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboclientes_abiertos, pos=(3,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="38">
-        <v>5</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="38">
-        <v>2</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboprocesos_abiertos, pos=(5,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="38">
-        <v>7</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="38">
-        <v>2</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboactuaciones_pend, pos=(7,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="38">
-        <v>14</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="38">
-        <v>1</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboactuacion_relacionada, pos=(14,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="38">
-        <v>20</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.txtinfo_adicional, pos=(20,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="38">
-        <v>17</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.checkactuacion_propia_si, pos=(17,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="38">
-        <v>17</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="38">
-        <v>2</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.checkactuacion_propia_no, pos=(17,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -319,6 +319,15 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>SIXX</t>
+  </si>
+  <si>
+    <t>NOXX</t>
+  </si>
+  <si>
+    <t>Seleccione acutacion a relacionar</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +414,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,9 +646,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -664,10 +682,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,12 +713,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,13 +874,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -916,13 +937,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1345,7 +1366,7 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="3"/>
@@ -1364,11 +1385,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1378,28 +1399,28 @@
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1409,27 +1430,27 @@
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,27 +1460,27 @@
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,7 +1490,7 @@
       <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="7"/>
@@ -1484,7 +1505,7 @@
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7"/>
@@ -1500,92 +1521,92 @@
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="39" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="15" t="str">
+      <c r="H13" s="14" t="str">
         <f>+IF(H12="","","Tipo de persona")</f>
         <v>Tipo de persona</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="14" t="str">
         <f>+IF(C13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="14" t="str">
         <f>+IF(F13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="15" t="str">
+      <c r="H14" s="14" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Nombre","Razón Social")))</f>
         <v>Razón Social</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="30" t="str">
+      <c r="B15" s="29" t="str">
         <f>+IF(C13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="30" t="str">
+      <c r="E15" s="29" t="str">
         <f>+IF(F13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="29" t="str">
         <f>+IF(H12="","",(IF(I13="Natural","Cédula","NIT")))</f>
         <v>NIT</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1609,12 +1630,12 @@
       <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1639,12 +1660,12 @@
       <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1669,12 +1690,12 @@
       <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1692,15 +1713,15 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1752,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
@@ -1836,7 +1857,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1853,7 +1874,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1949,7 +1970,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="34" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1969,15 +1990,15 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -1989,15 +2010,11 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -2006,268 +2023,305 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="L14" s="14" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
-      <c r="L16" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8"/>
-      <c r="L17" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
-      <c r="L18" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
+      <c r="B19" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
-      <c r="L19" s="14" t="s">
-        <v>22</v>
+      <c r="L19" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="B20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
+      <c r="L20" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
-      <c r="L21" s="1" t="s">
-        <v>90</v>
+      <c r="L21" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="8"/>
-      <c r="L22" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="8"/>
+      <c r="L23" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
       <c r="I24" s="8"/>
+      <c r="L24" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>32</v>
+      <c r="B30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="7"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
-      <c r="E32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
+    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="20" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="E34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="24" t="s">
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="23" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B22:D22"/>
+  <mergeCells count="3">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2279,7 +2333,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Cesar\Proyectos\WebScraping-Cinco\[Gv Carolina-2.xlsx]Campos'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D29 C32 F27:F29</xm:sqref>
+          <xm:sqref>D31 C34 F29:F31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2297,532 +2351,532 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="37"/>
-    <col min="3" max="3" width="19" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="37"/>
+    <col min="1" max="2" width="11.42578125" style="33"/>
+    <col min="3" max="3" width="19" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="37" t="str">
+      <c r="F1" s="33" t="str">
         <f>+CONCATENATE(A1,B1,C1,D1,E1)</f>
         <v>self.lblactualizar_procesos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="37" t="str">
+      <c r="F2" s="33" t="str">
         <f t="shared" ref="F2:F25" si="0">+CONCATENATE(A2,B2,C2,D2,E2)</f>
         <v>self.lblclientes_abiertos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="37" t="str">
+      <c r="F3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblprocesos_abiertos=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="37" t="str">
+      <c r="F4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuaciones_pend=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="37" t="str">
+      <c r="F6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lbldescripcion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="37" t="str">
+      <c r="F7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_actuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="37" t="str">
+      <c r="F8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_fin_termino=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="37" t="str">
+      <c r="F9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion_relacionada=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="37" t="str">
+      <c r="F10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblactuacion_propia=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="37" t="str">
+      <c r="F11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblinfo_adicional=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblestrategia=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="37" t="str">
+      <c r="F13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblfecha_limite=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="F14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lblestado=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="37" t="str">
+      <c r="F15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptaactuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="37" t="str">
+      <c r="F16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptadescripcion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="F17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptafecha_actuacion=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="37" t="str">
+      <c r="F18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.lbrptafecha_fin_termino=wx.StaticText(self.panel, label='')</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="37" t="str">
+      <c r="F19" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.comboclientes_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="37" t="str">
+      <c r="F20" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.comboprocesos_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="37" t="str">
+      <c r="F21" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.comboactuaciones_pend=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="37" t="str">
+      <c r="F22" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.comboactuacion_relacionada=wx.ComboBox(self.panel,value='', choices=[])</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="37" t="str">
+      <c r="F23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.txtinfo_adicional=wx.TextCtrl(self.panel)</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="37" t="str">
+      <c r="F24" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.checkactuacion_propia_si=wx.CheckBox(self.panel, label= "Si")</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="37" t="str">
+      <c r="F25" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.checkactuacion_propia_no=wx.CheckBox(self.panel, label= "No")</v>
       </c>
@@ -2842,846 +2896,846 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="37" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="37"/>
+    <col min="1" max="1" width="4.5703125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="33" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="6.28515625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="37">
+      <c r="F1" s="33">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="33">
         <v>4</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="37" t="str">
+      <c r="J1" s="33" t="str">
         <f>+CONCATENATE(D1,A1,B1,C1,E1,F1,G1,H1,I1)</f>
         <v>self.fgs.Add(self.lblactualizar_procesos, pos=(1,4),span=(1,2), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <v>3</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="33">
         <v>1</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="37" t="str">
+      <c r="J2" s="33" t="str">
         <f t="shared" ref="J2:J25" si="0">+CONCATENATE(D2,A2,B2,C2,E2,F2,G2,H2,I2)</f>
         <v>self.fgs.Add(self.lblclientes_abiertos, pos=(3,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="33">
         <v>5</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <v>1</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="37" t="str">
+      <c r="J3" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblprocesos_abiertos, pos=(5,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <v>7</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="33">
         <v>1</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="37" t="str">
+      <c r="J4" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuaciones_pend, pos=(7,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="33">
         <v>1</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="37" t="str">
+      <c r="J5" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion, pos=(10,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>10</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="33">
         <v>2</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="37" t="str">
+      <c r="J6" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbldescripcion, pos=(10,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>10</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="33">
         <v>3</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="37" t="str">
+      <c r="J7" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_actuacion, pos=(10,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>10</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="33">
         <v>4</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="37" t="str">
+      <c r="J8" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_fin_termino, pos=(10,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <v>13</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="33">
         <v>1</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="37" t="str">
+      <c r="J9" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion_relacionada, pos=(13,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <v>16</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="33">
         <v>1</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="37" t="str">
+      <c r="J10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblactuacion_propia, pos=(16,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>19</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <v>1</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="37" t="str">
+      <c r="J11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblinfo_adicional, pos=(19,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="33">
         <v>19</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="33">
         <v>3</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="37" t="str">
+      <c r="J12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblestrategia, pos=(19,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="33">
         <v>19</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="33">
         <v>4</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="37" t="str">
+      <c r="J13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblfecha_limite, pos=(19,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="33">
         <v>19</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="33">
         <v>5</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="37" t="str">
+      <c r="J14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lblestado, pos=(19,5),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="33">
         <v>11</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="33">
         <v>1</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="37" t="str">
+      <c r="J15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptaactuacion, pos=(11,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <v>11</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="33">
         <v>2</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="37" t="str">
+      <c r="J16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptadescripcion, pos=(11,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="33">
         <v>11</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="33">
         <v>3</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="37" t="str">
+      <c r="J17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptafecha_actuacion, pos=(11,3),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="33">
         <v>11</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="33">
         <v>4</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="37" t="str">
+      <c r="J18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.lbrptafecha_fin_termino, pos=(11,4),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="33">
         <v>3</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="33">
         <v>2</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="37" t="str">
+      <c r="J19" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboclientes_abiertos, pos=(3,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="33">
         <v>5</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="33">
         <v>2</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="37" t="str">
+      <c r="J20" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboprocesos_abiertos, pos=(5,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="33">
         <v>7</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="33">
         <v>2</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="37" t="str">
+      <c r="J21" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboactuaciones_pend, pos=(7,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="33">
         <v>14</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="33">
         <v>1</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="37" t="str">
+      <c r="J22" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.comboactuacion_relacionada, pos=(14,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="33">
         <v>20</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="33">
         <v>1</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="37" t="str">
+      <c r="J23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.txtinfo_adicional, pos=(20,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="33">
         <v>17</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="33">
         <v>1</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="37" t="str">
+      <c r="J24" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.checkactuacion_propia_si, pos=(17,1),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="33">
         <v>17</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="33">
         <v>2</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="37" t="str">
+      <c r="J25" s="33" t="str">
         <f t="shared" si="0"/>
         <v>self.fgs.Add(self.checkactuacion_propia_no, pos=(17,2),span=(1,1), flag= wx.ALL, border=0)</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="33" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -14,12 +14,10 @@
   <sheets>
     <sheet name="Nuevo Pro" sheetId="2" r:id="rId1"/>
     <sheet name="Ventana Actualizar Proceso" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -199,108 +197,6 @@
   </si>
   <si>
     <t>nO</t>
-  </si>
-  <si>
-    <t>self.</t>
-  </si>
-  <si>
-    <t>lbl</t>
-  </si>
-  <si>
-    <t>actualizar_procesos</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>wx.StaticText(self.panel, label='')</t>
-  </si>
-  <si>
-    <t>clientes_abiertos</t>
-  </si>
-  <si>
-    <t>procesos_abiertos</t>
-  </si>
-  <si>
-    <t>actuaciones_pend</t>
-  </si>
-  <si>
-    <t>actuacion</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>fecha_actuacion</t>
-  </si>
-  <si>
-    <t>fecha_fin_termino</t>
-  </si>
-  <si>
-    <t>actuacion_relacionada</t>
-  </si>
-  <si>
-    <t>actuacion_propia</t>
-  </si>
-  <si>
-    <t>info_adicional</t>
-  </si>
-  <si>
-    <t>estrategia</t>
-  </si>
-  <si>
-    <t>fecha_limite</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>lbrpta</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>wx.ComboBox(self.panel,value='', choices=[])</t>
-  </si>
-  <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t>wx.TextCtrl(self.panel)</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>actuacion_propia_si</t>
-  </si>
-  <si>
-    <t>wx.CheckBox(self.panel, label= "Si")</t>
-  </si>
-  <si>
-    <t>actuacion_propia_no</t>
-  </si>
-  <si>
-    <t>wx.CheckBox(self.panel, label= "No")</t>
-  </si>
-  <si>
-    <t>self.fgs.Add(</t>
-  </si>
-  <si>
-    <t>, pos=(</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>),span=(1,2), flag= wx.ALL, border=0)</t>
-  </si>
-  <si>
-    <t>),span=(1,1), flag= wx.ALL, border=0)</t>
-  </si>
-  <si>
-    <t>self.fgs.Add(btn_aceptar, pos=(6,1),span=(1,3), flag= wx.ALL | wx.ALIGN_CENTER, border=0)</t>
   </si>
   <si>
     <t xml:space="preserve">SE DEBE ENVIAR UN CORREO AL ENCARGADO DEL PROCESO, </t>
@@ -334,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +287,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -430,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -619,12 +509,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -682,13 +652,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,12 +685,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,11 +1362,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,9 +1382,9 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1418,9 +1395,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,9 +1411,9 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1448,9 +1425,9 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1464,9 +1441,9 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1478,9 +1455,9 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,21 +1498,21 @@
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="39" t="str">
+      <c r="H12" s="41" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1775,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1970,11 +1947,11 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1990,15 +1967,15 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
@@ -2010,11 +1987,11 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -2023,11 +2000,11 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -2036,11 +2013,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2053,11 +2030,11 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2079,7 +2056,7 @@
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2095,10 +2072,10 @@
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
@@ -2110,10 +2087,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="44"/>
+      <c r="B19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="35"/>
       <c r="D19" s="17" t="s">
         <v>23</v>
       </c>
@@ -2130,7 +2107,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2149,7 +2126,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
@@ -2187,57 +2164,57 @@
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
       <c r="L23" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="I24" s="8"/>
       <c r="L24" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="51"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="51"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2339,1407 +2316,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" style="33"/>
-    <col min="3" max="3" width="19" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="33" t="str">
-        <f>+CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>self.lblactualizar_procesos=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="33" t="str">
-        <f t="shared" ref="F2:F25" si="0">+CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>self.lblclientes_abiertos=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblprocesos_abiertos=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuaciones_pend=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbldescripcion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_actuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_fin_termino=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion_relacionada=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblactuacion_propia=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblinfo_adicional=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblestrategia=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblfecha_limite=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lblestado=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptaactuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptadescripcion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptafecha_actuacion=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.lbrptafecha_fin_termino=wx.StaticText(self.panel, label='')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboclientes_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboprocesos_abiertos=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboactuaciones_pend=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.comboactuacion_relacionada=wx.ComboBox(self.panel,value='', choices=[])</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.txtinfo_adicional=wx.TextCtrl(self.panel)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.checkactuacion_propia_si=wx.CheckBox(self.panel, label= "Si")</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.checkactuacion_propia_no=wx.CheckBox(self.panel, label= "No")</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.5703125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="33" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="6.28515625" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="33">
-        <v>4</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="33" t="str">
-        <f>+CONCATENATE(D1,A1,B1,C1,E1,F1,G1,H1,I1)</f>
-        <v>self.fgs.Add(self.lblactualizar_procesos, pos=(1,4),span=(1,2), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="33">
-        <v>3</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="33">
-        <v>1</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="33" t="str">
-        <f t="shared" ref="J2:J25" si="0">+CONCATENATE(D2,A2,B2,C2,E2,F2,G2,H2,I2)</f>
-        <v>self.fgs.Add(self.lblclientes_abiertos, pos=(3,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="33">
-        <v>5</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="33">
-        <v>1</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblprocesos_abiertos, pos=(5,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="33">
-        <v>7</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="33">
-        <v>1</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuaciones_pend, pos=(7,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="33">
-        <v>10</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="33">
-        <v>1</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion, pos=(10,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="33">
-        <v>10</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="33">
-        <v>2</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbldescripcion, pos=(10,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="33">
-        <v>10</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="33">
-        <v>3</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_actuacion, pos=(10,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="33">
-        <v>10</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="33">
-        <v>4</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_fin_termino, pos=(10,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="33">
-        <v>13</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="33">
-        <v>1</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion_relacionada, pos=(13,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="33">
-        <v>16</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="33">
-        <v>1</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblactuacion_propia, pos=(16,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="33">
-        <v>19</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="33">
-        <v>1</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblinfo_adicional, pos=(19,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="33">
-        <v>19</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="33">
-        <v>3</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblestrategia, pos=(19,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="33">
-        <v>19</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="33">
-        <v>4</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblfecha_limite, pos=(19,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="33">
-        <v>19</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="33">
-        <v>5</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lblestado, pos=(19,5),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="33">
-        <v>11</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="33">
-        <v>1</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptaactuacion, pos=(11,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="33">
-        <v>11</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="33">
-        <v>2</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptadescripcion, pos=(11,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="33">
-        <v>11</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="33">
-        <v>3</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptafecha_actuacion, pos=(11,3),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="33">
-        <v>11</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="33">
-        <v>4</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.lbrptafecha_fin_termino, pos=(11,4),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="33">
-        <v>3</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="33">
-        <v>2</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboclientes_abiertos, pos=(3,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="33">
-        <v>5</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="33">
-        <v>2</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboprocesos_abiertos, pos=(5,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="33">
-        <v>7</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="33">
-        <v>2</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboactuaciones_pend, pos=(7,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="33">
-        <v>14</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="33">
-        <v>1</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.comboactuacion_relacionada, pos=(14,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="33">
-        <v>20</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="33">
-        <v>1</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.txtinfo_adicional, pos=(20,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="33">
-        <v>17</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="33">
-        <v>1</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.checkactuacion_propia_si, pos=(17,1),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="33">
-        <v>17</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="33">
-        <v>2</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>self.fgs.Add(self.checkactuacion_propia_no, pos=(17,2),span=(1,1), flag= wx.ALL, border=0)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Esquemas.xlsx
+++ b/Esquemas.xlsx
@@ -14,10 +14,11 @@
   <sheets>
     <sheet name="Nuevo Pro" sheetId="2" r:id="rId1"/>
     <sheet name="Ventana Actualizar Proceso" sheetId="1" r:id="rId2"/>
+    <sheet name="Ventana Usuarios" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>que define un proceso abierto?</t>
   </si>
@@ -49,30 +50,12 @@
     <t>Lista desplegable</t>
   </si>
   <si>
-    <t>¿La actuación está relacionada con alguna de las actuaciones anteriores?, se debe mostrar una lista desplegable</t>
-  </si>
-  <si>
-    <t>que se debe mostrar en esta lista, el numero del grupo? O que campo</t>
-  </si>
-  <si>
-    <t>la actuacion es propia ? , solo debe salir sidependiendo de si es memorial o no</t>
-  </si>
-  <si>
     <t>Actuación</t>
   </si>
   <si>
     <t>Lista desplegable de actuaciones por actualizar de ese proceso</t>
   </si>
   <si>
-    <t>esta validacion se realiza en el campo de actuacion?, si es asi , memorial sale de muchas formas</t>
-  </si>
-  <si>
-    <t>la regla de validacion seria si el campo tiene la palabra MEMO o MEMORIAL</t>
-  </si>
-  <si>
-    <t>EJ</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -82,24 +65,9 @@
     <t>Fecha Fin de Término</t>
   </si>
   <si>
-    <t>MEMORIALES A DESPACHO</t>
-  </si>
-  <si>
-    <t>RECEPCIÓN MEMORIAL</t>
-  </si>
-  <si>
-    <t>RECIBE MEMORIALES</t>
-  </si>
-  <si>
-    <t>RECIBE MEMORIALES POR CORREO ELECTRONICO</t>
-  </si>
-  <si>
     <t>¿La actuación está relacionada con alguna de las actuaciones anteriores?</t>
   </si>
   <si>
-    <t>RECIBE MEMORIALES POR CORRESPONDENCIA</t>
-  </si>
-  <si>
     <t>Lista desplegable de actuaciones principales (las más antiguas de cada grupo) y una opción final que diga Nueva</t>
   </si>
   <si>
@@ -199,12 +167,6 @@
     <t>nO</t>
   </si>
   <si>
-    <t xml:space="preserve">SE DEBE ENVIAR UN CORREO AL ENCARGADO DEL PROCESO, </t>
-  </si>
-  <si>
-    <t>DONDE ESTA ESTO?</t>
-  </si>
-  <si>
     <t>¿Qué debe contener la lista desplegable?</t>
   </si>
   <si>
@@ -224,6 +186,42 @@
   </si>
   <si>
     <t>Seleccione acutacion a relacionar</t>
+  </si>
+  <si>
+    <t>Software Legal</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Maria Clara</t>
+  </si>
+  <si>
+    <t>mariaclara@cincoconsultores.com.co</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>santiago@cincoconsultores.com.co</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>laura@cincoconsultores.com.co</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>julio@cincoconsultores.com.co</t>
   </si>
 </sst>
 </file>
@@ -288,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -594,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -661,6 +665,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,14 +700,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,6 +992,82 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD2EE32-19BD-4630-8411-AA58EB0C5895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2714625"/>
+          <a:ext cx="1381125" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>Crear</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100" baseline="0"/>
+            <a:t> Usuario</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1012,15 +1104,15 @@
       <sheetName val="Funcionalidades"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1344,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1362,11 +1454,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="G3" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1374,30 +1466,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,29 +1497,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1435,29 +1527,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,10 +1557,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1483,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1498,21 +1590,21 @@
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="40"/>
+      <c r="B12" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="48"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="42"/>
+      <c r="E12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="50"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="49" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1520,17 +1612,17 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="14" t="str">
@@ -1605,12 +1697,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="7"/>
@@ -1635,12 +1727,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="7"/>
@@ -1665,12 +1757,12 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="7"/>
@@ -1752,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,19 +1951,17 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
-      <c r="L5" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1879,9 +1969,6 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1899,10 +1986,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1923,9 +2010,6 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
-      <c r="L9" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1939,19 +2023,16 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1959,19 +2040,16 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
-      <c r="L11" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -1979,9 +2057,6 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="L12" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2014,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2031,10 +2106,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2042,21 +2117,19 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
-      <c r="L16" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2068,83 +2141,75 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8"/>
-      <c r="L18" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
-      <c r="L19" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>24</v>
+      <c r="B20" s="51" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="8"/>
-      <c r="L20" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="8"/>
-      <c r="L21" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2163,58 +2228,52 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="8"/>
-      <c r="L23" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="B24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="I24" s="8"/>
-      <c r="L24" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="42"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="42"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,13 +2289,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2259,10 +2318,10 @@
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="22" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E32" s="7"/>
       <c r="I32" s="8"/>
@@ -2285,13 +2344,13 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2316,4 +2375,316 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="1"/>
+    <col min="9" max="10" width="9.140625" style="7"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="K4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>